--- a/Points.xlsx
+++ b/Points.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,6 +27,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+  <si>
+    <t>m</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:F9" si="4">(A17-A9)/D9</f>
+        <f t="shared" ref="E9" si="4">(A17-A9)/D9</f>
         <v>48.75</v>
       </c>
       <c r="F9">
@@ -691,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:F17" si="5">(A25-A17)/D17</f>
+        <f t="shared" ref="E17" si="5">(A25-A17)/D17</f>
         <v>48.5</v>
       </c>
       <c r="F17">
@@ -855,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:F25" si="6">(A33-A25)/D25</f>
+        <f t="shared" ref="E25" si="6">(A33-A25)/D25</f>
         <v>-43</v>
       </c>
       <c r="F25">
@@ -1199,460 +1209,707 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>232.5</v>
+      </c>
+      <c r="B1">
+        <v>483.25</v>
+      </c>
+      <c r="C1">
+        <f>ROUND(A1,0)</f>
+        <v>233</v>
+      </c>
+      <c r="D1">
+        <f>ROUND(B1,0)</f>
+        <v>483</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"tap,"&amp;C1&amp;","&amp;D1</f>
+        <v>tap,233,483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>458.5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C28" si="0">ROUND(A2,0)</f>
+        <v>201</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D28" si="1">ROUND(B2,0)</f>
+        <v>459</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E6" si="2">"tap,"&amp;C2&amp;","&amp;D2</f>
+        <v>tap,201,459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>169.5</v>
+      </c>
+      <c r="B3">
+        <v>433.75</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>tap,170,434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>138</v>
+      </c>
+      <c r="B4">
+        <v>409</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>tap,138,409</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>106.5</v>
+      </c>
+      <c r="B5">
+        <v>384.25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>tap,107,384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>359.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>tap,75,360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>43.5</v>
+      </c>
+      <c r="B7">
+        <v>334.75</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"tap,"&amp;C7&amp;","&amp;D7</f>
+        <v>tap,44,335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60.75</v>
+      </c>
+      <c r="B8">
+        <v>273.25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E28" si="3">"tap,"&amp;C8&amp;","&amp;D8</f>
+        <v>tap,61,273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>109.5</v>
+      </c>
+      <c r="B9">
+        <v>236.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,110,237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>158.25</v>
+      </c>
+      <c r="B10">
+        <v>199.75</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,158,200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>207</v>
+      </c>
+      <c r="B11">
+        <v>163</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,207,163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>255.75</v>
+      </c>
+      <c r="B12">
+        <v>126.25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,256,126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>304.5</v>
+      </c>
+      <c r="B13">
+        <v>89.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,305,90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>353.25</v>
+      </c>
+      <c r="B14">
+        <v>52.75</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,353,53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>450.5</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,451,53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>499</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,499,90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>547.5</v>
+      </c>
+      <c r="B17">
+        <v>127</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,548,127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>596</v>
+      </c>
+      <c r="B18">
+        <v>164</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,596,164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>644.5</v>
+      </c>
+      <c r="B19">
+        <v>201</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,645,201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>693</v>
+      </c>
+      <c r="B20">
+        <v>238</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,693,238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>741.5</v>
+      </c>
+      <c r="B21">
+        <v>275</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,742,275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>747</v>
+      </c>
+      <c r="B22">
+        <v>342.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,747,343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>704</v>
+      </c>
+      <c r="B23">
+        <v>373</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>704</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,704,373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>661</v>
+      </c>
+      <c r="B24">
+        <v>403.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>661</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,661,404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>618</v>
+      </c>
+      <c r="B25">
+        <v>434</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,618,434</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>575</v>
+      </c>
+      <c r="B26">
+        <v>464.5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,575,465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>532</v>
+      </c>
+      <c r="B27">
+        <v>495</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,532,495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>489</v>
+      </c>
+      <c r="B28">
+        <v>525.5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>tap,489,526</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F28">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>232.5</v>
+        <v>44</v>
       </c>
       <c r="B1">
-        <v>483.25</v>
-      </c>
-      <c r="C1">
-        <f>ROUND(A1,0)</f>
-        <v>233</v>
-      </c>
-      <c r="D1">
-        <f>ROUND(B1,0)</f>
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"tap,"&amp;A1&amp;","&amp;B1</f>
+        <v>tap,44,616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="B2">
-        <v>458.5</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C28" si="0">ROUND(A2,0)</f>
-        <v>201</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D28" si="1">ROUND(B2,0)</f>
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C8" si="0">"tap,"&amp;A2&amp;","&amp;B2</f>
+        <v>tap,116,616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>169.5</v>
+        <v>188</v>
       </c>
       <c r="B3">
-        <v>433.75</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>tap,188,616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="B4">
-        <v>409</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>tap,260,616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>106.5</v>
+        <v>332</v>
       </c>
       <c r="B5">
-        <v>384.25</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>tap,332,616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="B6">
-        <v>359.5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>tap,404,616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>43.5</v>
+        <v>476</v>
       </c>
       <c r="B7">
-        <v>334.75</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>tap,476,616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60.75</v>
+        <v>548</v>
       </c>
       <c r="B8">
-        <v>273.25</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>109.5</v>
-      </c>
-      <c r="B9">
-        <v>236.5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>158.25</v>
-      </c>
-      <c r="B10">
-        <v>199.75</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>207</v>
-      </c>
-      <c r="B11">
-        <v>163</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>255.75</v>
-      </c>
-      <c r="B12">
-        <v>126.25</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>304.5</v>
-      </c>
-      <c r="B13">
-        <v>89.5</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>353.25</v>
-      </c>
-      <c r="B14">
-        <v>52.75</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>450.5</v>
-      </c>
-      <c r="B15">
-        <v>53</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>451</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>499</v>
-      </c>
-      <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>499</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>547.5</v>
-      </c>
-      <c r="B17">
-        <v>127</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>548</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>596</v>
-      </c>
-      <c r="B18">
-        <v>164</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>644.5</v>
-      </c>
-      <c r="B19">
-        <v>201</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>645</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>693</v>
-      </c>
-      <c r="B20">
-        <v>238</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>693</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>741.5</v>
-      </c>
-      <c r="B21">
-        <v>275</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>742</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>747</v>
-      </c>
-      <c r="B22">
-        <v>342.5</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>747</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>704</v>
-      </c>
-      <c r="B23">
-        <v>373</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>704</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>661</v>
-      </c>
-      <c r="B24">
-        <v>403.5</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>661</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>618</v>
-      </c>
-      <c r="B25">
-        <v>434</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>618</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>575</v>
-      </c>
-      <c r="B26">
-        <v>464.5</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>532</v>
-      </c>
-      <c r="B27">
-        <v>495</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>532</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>489</v>
-      </c>
-      <c r="B28">
-        <v>525.5</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>526</v>
+        <v>616</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>tap,548,616</v>
       </c>
     </row>
   </sheetData>
